--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>45672.73372602111</v>
+        <v>45672.73372601852</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2482,6 +2482,16 @@
         </is>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" s="3" t="n">
+        <v>45673.03148191075</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>45673.03148191075</v>
+        <v>45673.03148190973</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2492,6 +2492,16 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" s="3" t="n">
+        <v>45674.03135879165</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2494,7 +2494,7 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>45674.03135879165</v>
+        <v>45674.0313587963</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B255"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2502,6 +2502,16 @@
         </is>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="3" t="n">
+        <v>45675.0380148582</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2504,7 +2504,7 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>45675.0380148582</v>
+        <v>45675.03801486111</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2512,6 +2512,16 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="3" t="n">
+        <v>45676.04235117942</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2514,7 +2514,7 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>45676.04235117942</v>
+        <v>45676.04235118056</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2522,6 +2522,16 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="3" t="n">
+        <v>45677.04004487598</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2524,7 +2524,7 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>45677.04004487598</v>
+        <v>45677.04004487269</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2532,6 +2532,16 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="3" t="n">
+        <v>45678.03933940255</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2534,11 +2534,11 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>45678.03933940255</v>
+        <v>45678.03933939815</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2542,6 +2542,16 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="3" t="n">
+        <v>45679.04040205873</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2544,7 +2544,7 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>45679.04040205873</v>
+        <v>45679.04040206019</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2552,6 +2552,16 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" s="3" t="n">
+        <v>45680.03942044118</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2554,7 +2554,7 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>45680.03942044118</v>
+        <v>45680.03942043982</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2562,6 +2562,16 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="3" t="n">
+        <v>45681.03961042783</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2564,11 +2564,11 @@
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>45681.03961042783</v>
+        <v>45681.03961042824</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2568,7 +2568,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2572,6 +2572,16 @@
         </is>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" s="3" t="n">
+        <v>45682.03723214378</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2574,7 +2574,7 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>45682.03723214378</v>
+        <v>45682.03723214121</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B263"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2582,6 +2582,16 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="3" t="n">
+        <v>45683.04069317388</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2584,7 +2584,7 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>45683.04069317388</v>
+        <v>45683.04069317129</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2592,6 +2592,16 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="3" t="n">
+        <v>45684.04018955432</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2594,7 +2594,7 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>45684.04018955432</v>
+        <v>45684.04018954861</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2602,6 +2602,16 @@
         </is>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="3" t="n">
+        <v>45685.03952775121</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2604,7 +2604,7 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>45685.03952775121</v>
+        <v>45685.03952775463</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2608,7 +2608,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2612,6 +2612,16 @@
         </is>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="3" t="n">
+        <v>45686.03951624471</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2614,11 +2614,11 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>45686.03951624471</v>
+        <v>45686.03951625</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2622,6 +2622,16 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="3" t="n">
+        <v>45687.03896551521</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2624,7 +2624,7 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>45687.03896551521</v>
+        <v>45687.03896552083</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2632,6 +2632,16 @@
         </is>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" s="3" t="n">
+        <v>45688.0397439349</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2634,7 +2634,7 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>45688.0397439349</v>
+        <v>45688.03974393519</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2642,6 +2642,16 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" s="3" t="n">
+        <v>45689.04189736058</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2644,7 +2644,7 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>45689.04189736058</v>
+        <v>45689.04189736111</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2652,6 +2652,16 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" s="3" t="n">
+        <v>45690.04162167118</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2654,7 +2654,7 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>45690.04162167118</v>
+        <v>45690.04162166666</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E243" sqref="E243"/>
@@ -2662,6 +2662,16 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="3" t="n">
+        <v>45691.04035210781</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2664,7 +2664,7 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>45691.04035210781</v>
+        <v>45691.04035210648</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>

--- a/DataBI/Argent_EUR.xlsx
+++ b/DataBI/Argent_EUR.xlsx
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
